--- a/data/trans_orig/IP07A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3436FA80-A4B5-48F5-86C9-5D60F2E9D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAC7ED2-0C87-44EB-BEE4-06503E7BE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC255463-A32D-45E2-AB40-7A4D08B30902}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A872C7F-B607-4E09-9AF5-09026887AB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="417">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -76,319 +76,313 @@
     <t>52,99%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
     <t>47,34%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>1,98%</t>
@@ -397,7 +391,7 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -406,904 +400,895 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>54,16%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>58,22%</t>
   </si>
   <si>
     <t>53,55%</t>
   </si>
   <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
     <t>48,84%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,08%</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F95037-91AD-43AC-944E-9DB3A9C4A53F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACCA7A8-BB59-4DF3-B925-6ADD716A47D4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1995,10 +1980,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2007,13 +1992,13 @@
         <v>683</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2022,19 +2007,19 @@
         <v>1485</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2043,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2058,13 +2043,13 @@
         <v>647</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2073,13 +2058,13 @@
         <v>647</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2079,13 @@
         <v>47230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -2109,13 +2094,13 @@
         <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -2124,18 +2109,18 @@
         <v>97904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2147,13 +2132,13 @@
         <v>131337</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -2162,13 +2147,13 @@
         <v>110942</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>364</v>
@@ -2177,13 +2162,13 @@
         <v>242280</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2183,13 @@
         <v>94898</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>122</v>
@@ -2213,13 +2198,13 @@
         <v>82019</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -2228,13 +2213,13 @@
         <v>176918</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2234,13 @@
         <v>11049</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2264,13 +2249,13 @@
         <v>10502</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -2279,13 +2264,13 @@
         <v>21551</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2285,13 @@
         <v>679</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2315,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2330,19 +2315,19 @@
         <v>679</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2351,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2366,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2381,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2387,13 @@
         <v>237963</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>304</v>
@@ -2417,13 +2402,13 @@
         <v>203463</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>663</v>
@@ -2432,18 +2417,18 @@
         <v>441427</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2455,13 +2440,13 @@
         <v>30790</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -2470,13 +2455,13 @@
         <v>31324</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -2485,13 +2470,13 @@
         <v>62115</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2491,13 @@
         <v>26779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -2521,13 +2506,13 @@
         <v>33460</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2536,13 +2521,13 @@
         <v>60238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2542,13 @@
         <v>2012</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2572,13 +2557,13 @@
         <v>654</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2587,13 +2572,13 @@
         <v>2666</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2593,13 @@
         <v>813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2623,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2638,19 +2623,19 @@
         <v>813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2659,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2674,13 +2659,13 @@
         <v>1416</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2689,13 +2674,13 @@
         <v>1416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2695,13 @@
         <v>60394</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>96</v>
@@ -2725,13 +2710,13 @@
         <v>66854</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>185</v>
@@ -2740,13 +2725,13 @@
         <v>127248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2748,13 @@
         <v>187153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>254</v>
@@ -2778,13 +2763,13 @@
         <v>171878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>536</v>
@@ -2793,13 +2778,13 @@
         <v>359031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2799,13 @@
         <v>139655</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -2829,13 +2814,13 @@
         <v>133254</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>407</v>
@@ -2844,13 +2829,13 @@
         <v>272909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2850,13 @@
         <v>16486</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -2880,13 +2865,13 @@
         <v>13113</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -2895,13 +2880,13 @@
         <v>29599</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2901,13 @@
         <v>2293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2931,13 +2916,13 @@
         <v>683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2946,19 +2931,19 @@
         <v>2977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2967,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2982,13 +2967,13 @@
         <v>2063</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2997,13 +2982,13 @@
         <v>2063</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3003,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -3033,13 +3018,13 @@
         <v>320991</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>995</v>
@@ -3048,18 +3033,18 @@
         <v>666578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117A66E2-F970-4B99-8494-335CF6D1650C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F204A18F-B9F9-4D7B-8C57-5E41545D7FBB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3095,7 +3080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3202,13 +3187,13 @@
         <v>22345</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>46</v>
@@ -3217,13 +3202,13 @@
         <v>31895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -3232,13 +3217,13 @@
         <v>54240</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3238,13 @@
         <v>22277</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -3268,13 +3253,13 @@
         <v>20496</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -3283,13 +3268,13 @@
         <v>42773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3289,13 @@
         <v>607</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3319,13 +3304,13 @@
         <v>692</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3334,13 +3319,13 @@
         <v>1299</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3340,13 @@
         <v>624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3370,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3385,19 +3370,19 @@
         <v>624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3406,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3421,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3436,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3442,13 @@
         <v>45853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -3472,13 +3457,13 @@
         <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -3487,18 +3472,18 @@
         <v>98935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3495,13 @@
         <v>132745</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>171</v>
@@ -3525,13 +3510,13 @@
         <v>119548</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>366</v>
@@ -3540,13 +3525,13 @@
         <v>252293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3546,13 @@
         <v>84082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -3576,13 +3561,13 @@
         <v>79509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>235</v>
@@ -3591,13 +3576,13 @@
         <v>163591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3597,13 @@
         <v>7961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3627,13 +3612,13 @@
         <v>3453</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -3642,13 +3627,13 @@
         <v>11414</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3648,13 @@
         <v>1896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3678,13 +3663,13 @@
         <v>2283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3693,19 +3678,19 @@
         <v>4180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -3714,13 +3699,13 @@
         <v>2039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3729,13 +3714,13 @@
         <v>656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3744,13 +3729,13 @@
         <v>2695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3750,13 @@
         <v>228723</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>294</v>
@@ -3780,13 +3765,13 @@
         <v>205449</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>628</v>
@@ -3795,18 +3780,18 @@
         <v>434172</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3818,13 +3803,13 @@
         <v>33388</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -3833,13 +3818,13 @@
         <v>38735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -3848,13 +3833,13 @@
         <v>72124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3854,13 @@
         <v>20906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -3884,13 +3869,13 @@
         <v>20947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3899,13 +3884,13 @@
         <v>41853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3905,13 @@
         <v>3639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -3935,13 +3920,13 @@
         <v>3736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3950,13 +3935,13 @@
         <v>7374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3986,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4001,19 +3986,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4022,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4037,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4052,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4058,13 @@
         <v>57933</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -4088,13 +4073,13 @@
         <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>173</v>
@@ -4103,13 +4088,13 @@
         <v>121351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4111,13 @@
         <v>188478</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -4141,13 +4126,13 @@
         <v>190178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>548</v>
@@ -4156,13 +4141,13 @@
         <v>378656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4162,13 @@
         <v>127265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>170</v>
@@ -4192,13 +4177,13 @@
         <v>120953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>353</v>
@@ -4207,13 +4192,13 @@
         <v>248217</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4213,13 @@
         <v>12207</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -4243,13 +4228,13 @@
         <v>7880</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4258,13 +4243,13 @@
         <v>20087</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4264,13 @@
         <v>2520</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4294,13 +4279,13 @@
         <v>2283</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4309,19 +4294,19 @@
         <v>4803</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -4330,13 +4315,13 @@
         <v>2039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4345,13 +4330,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4360,13 +4345,13 @@
         <v>2695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4366,13 @@
         <v>332508</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>457</v>
@@ -4396,13 +4381,13 @@
         <v>321950</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>941</v>
@@ -4411,18 +4396,18 @@
         <v>654458</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4441,7 +4426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F7E39D-EC3D-4830-88DC-48D704C3D652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4CCAB-13A1-4FDE-B10D-64433B94CA39}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4458,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4565,13 +4550,13 @@
         <v>21579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -4580,13 +4565,13 @@
         <v>18122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4595,13 +4580,13 @@
         <v>39701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4601,13 @@
         <v>13505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4631,13 +4616,13 @@
         <v>11315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4646,13 +4631,13 @@
         <v>24821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4652,13 @@
         <v>1554</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4682,13 +4667,13 @@
         <v>2377</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4697,13 +4682,13 @@
         <v>3930</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4733,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4748,19 +4733,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4769,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4784,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4799,13 +4784,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4805,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4835,13 +4820,13 @@
         <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4850,18 +4835,18 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4873,13 +4858,13 @@
         <v>133779</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
@@ -4888,13 +4873,13 @@
         <v>136928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>378</v>
@@ -4903,13 +4888,13 @@
         <v>270706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4909,13 @@
         <v>101224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -4939,13 +4924,13 @@
         <v>99598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>282</v>
@@ -4954,13 +4939,13 @@
         <v>200822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4960,13 @@
         <v>9572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -4990,13 +4975,13 @@
         <v>11619</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -5005,13 +4990,13 @@
         <v>21191</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5011,13 @@
         <v>717</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5041,13 +5026,13 @@
         <v>993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5056,19 +5041,19 @@
         <v>1710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -5077,13 +5062,13 @@
         <v>1370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5092,13 +5077,13 @@
         <v>1421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5107,13 +5092,13 @@
         <v>2792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5113,13 @@
         <v>246662</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>360</v>
@@ -5143,13 +5128,13 @@
         <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>697</v>
@@ -5158,18 +5143,18 @@
         <v>497221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5181,13 +5166,13 @@
         <v>45820</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5196,13 +5181,13 @@
         <v>35367</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5211,13 +5196,13 @@
         <v>81187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5217,13 @@
         <v>31570</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5247,13 +5232,13 @@
         <v>35806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5262,13 +5247,13 @@
         <v>67377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5268,13 @@
         <v>671</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -5298,13 +5283,13 @@
         <v>2519</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5313,13 +5298,13 @@
         <v>3190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5349,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5364,19 +5349,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5385,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5400,13 +5385,13 @@
         <v>706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5415,13 +5400,13 @@
         <v>706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5421,13 @@
         <v>78061</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>104</v>
@@ -5451,13 +5436,13 @@
         <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5466,13 +5451,13 @@
         <v>152459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5474,13 @@
         <v>201178</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -5504,13 +5489,13 @@
         <v>190417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>546</v>
@@ -5519,13 +5504,13 @@
         <v>391594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5525,13 @@
         <v>146300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
         <v>208</v>
@@ -5555,13 +5540,13 @@
         <v>146720</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
         <v>412</v>
@@ -5570,13 +5555,13 @@
         <v>293020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5576,13 @@
         <v>11796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -5606,13 +5591,13 @@
         <v>16515</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -5621,13 +5606,13 @@
         <v>28311</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5627,13 @@
         <v>717</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5657,13 +5642,13 @@
         <v>993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5672,19 +5657,19 @@
         <v>1710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -5693,13 +5678,13 @@
         <v>1370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5708,13 +5693,13 @@
         <v>2128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5723,13 +5708,13 @@
         <v>3498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5729,13 @@
         <v>361361</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>510</v>
@@ -5759,13 +5744,13 @@
         <v>356772</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1006</v>
@@ -5774,18 +5759,18 @@
         <v>718133</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAC7ED2-0C87-44EB-BEE4-06503E7BE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4638ED9-60AF-4B17-A05D-06D816A013EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A872C7F-B607-4E09-9AF5-09026887AB4A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E4C9FE8-FABC-43AA-99A6-744A9CC1F914}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="419">
   <si>
     <t>Menores según frecuencia de sentirse alegre en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,133 +73,136 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
   </si>
   <si>
     <t>55,81%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
     <t>38,07%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
+    <t>8,55%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>9,89%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>5,39%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>3,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -208,1087 +211,1090 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
     <t>55,19%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>54,89%</t>
   </si>
   <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse alegre en 2016 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
     <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACCA7A8-BB59-4DF3-B925-6ADD716A47D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07100118-3833-4AE5-807A-11BA5423136F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1818,10 +1824,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>25025</v>
+        <v>29612</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1833,10 +1839,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I4" s="7">
-        <v>29612</v>
+        <v>25025</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1872,7 +1878,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>17978</v>
+        <v>17775</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1887,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>17775</v>
+        <v>17978</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1920,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>3425</v>
+        <v>1957</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1935,10 +1941,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>1957</v>
+        <v>3425</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1974,31 +1980,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>802</v>
+        <v>683</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>683</v>
+        <v>802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2007,49 +2013,49 @@
         <v>1485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>647</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>647</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2058,13 +2064,13 @@
         <v>647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,34 +2079,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -2109,51 +2115,51 @@
         <v>97904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>166</v>
+      </c>
+      <c r="D10" s="7">
+        <v>110942</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="7">
         <v>198</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>131337</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7">
-        <v>166</v>
-      </c>
-      <c r="I10" s="7">
-        <v>110942</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>364</v>
@@ -2162,13 +2168,13 @@
         <v>242280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,34 +2183,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7">
+        <v>82019</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7">
         <v>143</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>94898</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="7">
-        <v>122</v>
-      </c>
-      <c r="I11" s="7">
-        <v>82019</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -2213,13 +2219,13 @@
         <v>176918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,34 +2234,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10502</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="7">
         <v>17</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>11049</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10502</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -2264,13 +2270,13 @@
         <v>21551</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,34 +2285,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2315,19 +2321,19 @@
         <v>679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2336,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2351,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2366,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,34 +2387,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>304</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203463</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>304</v>
-      </c>
-      <c r="I15" s="7">
-        <v>203463</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>663</v>
@@ -2417,51 +2423,51 @@
         <v>441427</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31324</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="7">
         <v>46</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>30790</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="7">
-        <v>31324</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -2470,13 +2476,13 @@
         <v>62115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,34 +2491,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7">
+        <v>33460</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="7">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26779</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7">
-        <v>33460</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2521,13 +2527,13 @@
         <v>60238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,34 +2542,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>654</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2012</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>654</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2572,13 +2578,13 @@
         <v>2666</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,34 +2593,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>813</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2623,49 +2629,49 @@
         <v>813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1416</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1416</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2674,13 +2680,13 @@
         <v>1416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,34 +2695,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>185</v>
@@ -2725,13 +2731,13 @@
         <v>127248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,34 +2748,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>254</v>
+      </c>
+      <c r="D22" s="7">
+        <v>171878</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="7">
         <v>282</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>187153</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="7">
-        <v>254</v>
-      </c>
-      <c r="I22" s="7">
-        <v>171878</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>536</v>
@@ -2778,13 +2784,13 @@
         <v>359031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,34 +2799,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>198</v>
+      </c>
+      <c r="D23" s="7">
+        <v>133254</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="7">
         <v>209</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>139655</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="7">
-        <v>198</v>
-      </c>
-      <c r="I23" s="7">
-        <v>133254</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>407</v>
@@ -2829,13 +2835,13 @@
         <v>272909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,34 +2850,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>13113</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>16486</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="7">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7">
-        <v>13113</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -2880,13 +2886,13 @@
         <v>29599</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,34 +2901,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>683</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2293</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>683</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2931,49 +2937,49 @@
         <v>2977</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2063</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2063</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2982,13 +2988,13 @@
         <v>2063</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,34 +3003,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>476</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320991</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>476</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320991</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>995</v>
@@ -3033,18 +3039,18 @@
         <v>666578</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F204A18F-B9F9-4D7B-8C57-5E41545D7FBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DE1B76-697A-47DA-9997-268836FB8667}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3080,7 +3086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3181,34 +3187,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>31895</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="7">
         <v>32</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>22345</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="7">
-        <v>46</v>
-      </c>
-      <c r="I4" s="7">
-        <v>31895</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -3217,13 +3223,13 @@
         <v>54240</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,34 +3238,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20496</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="7">
         <v>31</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>22277</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>20496</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -3268,13 +3274,13 @@
         <v>42773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,31 +3292,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>607</v>
+        <v>692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>692</v>
+        <v>607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3319,13 +3325,13 @@
         <v>1299</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,34 +3340,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>624</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3370,19 +3376,19 @@
         <v>624</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3391,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3406,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3421,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,34 +3442,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -3472,51 +3478,51 @@
         <v>98935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>171</v>
+      </c>
+      <c r="D10" s="7">
+        <v>119548</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D10" s="7">
+      <c r="H10" s="7">
+        <v>195</v>
+      </c>
+      <c r="I10" s="7">
         <v>132745</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="7">
-        <v>171</v>
-      </c>
-      <c r="I10" s="7">
-        <v>119548</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>366</v>
@@ -3525,13 +3531,13 @@
         <v>252293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,34 +3546,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>79509</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="7">
         <v>121</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>84082</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="7">
-        <v>114</v>
-      </c>
-      <c r="I11" s="7">
-        <v>79509</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>235</v>
@@ -3576,13 +3582,13 @@
         <v>163591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,34 +3597,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3453</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7961</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3453</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -3627,13 +3633,13 @@
         <v>11414</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,31 +3651,31 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1896</v>
+        <v>2283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2283</v>
+        <v>1896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3678,49 +3684,49 @@
         <v>4180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>656</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2039</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>656</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3729,13 +3735,13 @@
         <v>2695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,34 +3750,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>294</v>
+      </c>
+      <c r="D15" s="7">
+        <v>205449</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228723</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>294</v>
-      </c>
-      <c r="I15" s="7">
-        <v>205449</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>628</v>
@@ -3780,51 +3786,51 @@
         <v>434172</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38735</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="7">
         <v>49</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>33388</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38735</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -3833,13 +3839,13 @@
         <v>72124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,34 +3854,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20947</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="7">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>20906</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20947</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3884,13 +3890,13 @@
         <v>41853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,31 +3908,31 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>3639</v>
+        <v>3736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>3736</v>
+        <v>3639</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -3935,13 +3941,13 @@
         <v>7374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3962,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3971,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3986,19 +3992,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4007,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4022,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4037,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,34 +4058,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>173</v>
@@ -4088,13 +4094,13 @@
         <v>121351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,34 +4111,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>272</v>
+      </c>
+      <c r="D22" s="7">
+        <v>190178</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="7">
         <v>276</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>188478</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="7">
-        <v>272</v>
-      </c>
-      <c r="I22" s="7">
-        <v>190178</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>548</v>
@@ -4141,13 +4147,13 @@
         <v>378656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,34 +4162,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>170</v>
+      </c>
+      <c r="D23" s="7">
+        <v>120953</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="7">
         <v>183</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>127265</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="7">
-        <v>170</v>
-      </c>
-      <c r="I23" s="7">
-        <v>120953</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>353</v>
@@ -4192,13 +4198,13 @@
         <v>248217</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,34 +4213,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7880</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12207</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7880</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -4243,13 +4249,13 @@
         <v>20087</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,34 +4264,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2283</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2520</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2283</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4294,49 +4300,49 @@
         <v>4803</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>656</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2039</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>656</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4345,13 +4351,13 @@
         <v>2695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,34 +4366,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321950</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321950</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>941</v>
@@ -4396,18 +4402,18 @@
         <v>654458</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4CCAB-13A1-4FDE-B10D-64433B94CA39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276D8079-2C3E-4066-9849-3F0771F9D6AD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4443,7 +4449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4544,34 +4550,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18122</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="7">
         <v>29</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>21579</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>18122</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -4580,13 +4586,13 @@
         <v>39701</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,34 +4601,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11315</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>13505</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11315</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4631,13 +4637,13 @@
         <v>24821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,34 +4652,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2377</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1554</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2377</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4682,13 +4688,13 @@
         <v>3930</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4718,13 +4724,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4733,19 +4739,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4754,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4769,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4784,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,34 +4805,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4835,51 +4841,51 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>197</v>
+      </c>
+      <c r="D10" s="7">
+        <v>136928</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="7">
         <v>181</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>133779</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" s="7">
-        <v>197</v>
-      </c>
-      <c r="I10" s="7">
-        <v>136928</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>378</v>
@@ -4888,13 +4894,13 @@
         <v>270706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,34 +4909,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>142</v>
+      </c>
+      <c r="D11" s="7">
+        <v>99598</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="7">
         <v>140</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>101224</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H11" s="7">
-        <v>142</v>
-      </c>
-      <c r="I11" s="7">
-        <v>99598</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>282</v>
@@ -4939,13 +4945,13 @@
         <v>200822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,34 +4960,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11619</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H12" s="7">
         <v>13</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>9572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11619</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -4990,13 +4996,13 @@
         <v>21191</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,31 +5014,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>717</v>
+        <v>993</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>993</v>
+        <v>717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -5041,49 +5047,49 @@
         <v>1710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1370</v>
+        <v>1421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1421</v>
+        <v>1370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5092,13 +5098,13 @@
         <v>2792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,34 +5113,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="7">
         <v>337</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>246662</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>697</v>
@@ -5143,51 +5149,51 @@
         <v>497221</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7">
+        <v>35367</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="7">
         <v>63</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>45820</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H16" s="7">
-        <v>50</v>
-      </c>
-      <c r="I16" s="7">
-        <v>35367</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5196,13 +5202,13 @@
         <v>81187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,34 +5217,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35806</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="7">
         <v>44</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>31570</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H17" s="7">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35806</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -5247,13 +5253,13 @@
         <v>67377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,34 +5268,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2519</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>671</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2519</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5298,13 +5304,13 @@
         <v>3190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5334,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5349,46 +5355,46 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>706</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>706</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>383</v>
@@ -5400,13 +5406,13 @@
         <v>706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,34 +5421,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5451,13 +5457,13 @@
         <v>152459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,31 +5477,31 @@
         <v>273</v>
       </c>
       <c r="D22" s="7">
-        <v>201178</v>
+        <v>190417</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
       </c>
       <c r="I22" s="7">
-        <v>190417</v>
+        <v>201178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>188</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>546</v>
@@ -5504,13 +5510,13 @@
         <v>391594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,34 +5525,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>208</v>
+      </c>
+      <c r="D23" s="7">
+        <v>146720</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="7">
         <v>204</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>146300</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H23" s="7">
-        <v>208</v>
-      </c>
-      <c r="I23" s="7">
-        <v>146720</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>412</v>
@@ -5555,13 +5561,13 @@
         <v>293020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,34 +5576,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16515</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H24" s="7">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11796</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16515</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>403</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M24" s="7">
         <v>41</v>
@@ -5606,13 +5612,13 @@
         <v>28311</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,31 +5630,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>717</v>
+        <v>993</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>993</v>
+        <v>717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5657,49 +5663,49 @@
         <v>1710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2128</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1370</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2128</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>84</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5708,13 +5714,13 @@
         <v>3498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>416</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,34 +5729,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>510</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356772</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>361361</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
-        <v>510</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356772</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1006</v>
@@ -5759,18 +5765,18 @@
         <v>718133</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
